--- a/Section02/Python/ParabolicTrajectorySample.xlsx
+++ b/Section02/Python/ParabolicTrajectorySample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.TeachingResearchGuide\Section02\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211211C9-D86F-496A-A574-2837F5D1944D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C69A52-F79A-48DA-B2DE-D5E59AB89B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="105" windowWidth="29040" windowHeight="15720" xr2:uid="{78E34CC1-5827-4A0A-B197-BE7DB5E72A50}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{78E34CC1-5827-4A0A-B197-BE7DB5E72A50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
@@ -55,10 +55,7 @@
     <t>θ, inclination angle, radianes</t>
   </si>
   <si>
-    <t>Gravity, m/s²</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> =B9*TAN($C$5)-($C$3/(2*($C$6^2*COS($C$5))^2))*B9^2</t>
+    <t>g, gravity, m/s²</t>
   </si>
 </sst>
 </file>
@@ -1304,15 +1301,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>125291</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>96348</xdr:rowOff>
+      <xdr:colOff>12182</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>132067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>138479</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>172548</xdr:rowOff>
+      <xdr:colOff>25370</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>208267</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1337,6 +1334,564 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68901</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35888</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1663853" cy="384401"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{241BC49E-5371-DE1E-7222-8E250577C525}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4593276" y="1286044"/>
+              <a:ext cx="1663853" cy="384401"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑦</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-CO" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>x</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="es-CO" sz="1100" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>tan</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>)−</m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-CO" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑔</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>(</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>)</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="es-CO" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:num>
+                          <m:den>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2(</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑢</m:t>
+                                </m:r>
+                                <m:func>
+                                  <m:funcPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:funcPr>
+                                  <m:fName>
+                                    <m:r>
+                                      <m:rPr>
+                                        <m:sty m:val="p"/>
+                                      </m:rPr>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>cos</m:t>
+                                    </m:r>
+                                  </m:fName>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="es-CO" sz="1100" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝜃</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>)</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:func>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:func>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-CO" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{241BC49E-5371-DE1E-7222-8E250577C525}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4593276" y="1286044"/>
+              <a:ext cx="1663853" cy="384401"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>x(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>tan〗⁡〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑔(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2(𝑢 cos⁡〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)〗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-CO" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1637,10 +2192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF34884-3280-4983-8FE3-10E506DDD337}">
-  <dimension ref="B2:F23"/>
+  <dimension ref="B2:C23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1652,12 +2207,12 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1665,7 +2220,7 @@
         <v>9.8059999999999992</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1673,7 +2228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1682,7 +2237,7 @@
         <v>1.0471975511965976</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1690,12 +2245,7 @@
         <v>9.4364603437348809</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>0</v>
       </c>
@@ -1712,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>50</v>
       </c>
@@ -1721,7 +2271,7 @@
         <v>80.419167785483722</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>100</v>
       </c>
@@ -1730,7 +2280,7 @@
         <v>148.47159038504725</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>150</v>
       </c>
@@ -1739,7 +2289,7 @@
         <v>204.15726779869053</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>200</v>
       </c>
@@ -1748,7 +2298,7 @@
         <v>247.47620002641361</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>250</v>
       </c>
@@ -1757,7 +2307,7 @@
         <v>278.42838706821647</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>300</v>
       </c>
@@ -1766,7 +2316,7 @@
         <v>297.01382892409913</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>350</v>
       </c>
